--- a/biology/Zoologie/Handbook_of_the_Mammals_of_the_World/Handbook_of_the_Mammals_of_the_World.xlsx
+++ b/biology/Zoologie/Handbook_of_the_Mammals_of_the_World/Handbook_of_the_Mammals_of_the_World.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La collection Handbook of the Mammals of the World (HMW) est une série de 9 volumes éditée par une maison d'édition espagnole de Barcelone : Lynx Edicions.  La série est dirigée par Russell Alan Mittermeier et Don E. Wilson en association avec Conservation International, la Texas A&amp;M University et l'UICN.  
 Tout comme pour Handbook of the Birds of the World aussi publié par Lynx Edicions, cette encyclopédie vise à couvrir la totalité des mammifères vivants.  La publication a débuté en 2009.
@@ -514,8 +526,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Volume 1 : Carnivores
-Publié en mai 2009, ce volume comporte 728 pages, 36 planches en couleurs, 561 photographies en couleurs et 258 cartes de distribution  (ISBN 978-84-96553-49-1).  Les illustrations ont été réalisées par l'artiste catalan Toni Llobet.  L'introduction, au sujet de la classe des mammifères a été écrite par Don E. Wilson. Le cœur de l'ouvrage traite des 13 familles et des 245 espèces de carnivores, incluant une nouvelle espèce d'Olingo découverte en Équateur en 2006.  
+          <t>Volume 1 : Carnivores</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Publié en mai 2009, ce volume comporte 728 pages, 36 planches en couleurs, 561 photographies en couleurs et 258 cartes de distribution  (ISBN 978-84-96553-49-1).  Les illustrations ont été réalisées par l'artiste catalan Toni Llobet.  L'introduction, au sujet de la classe des mammifères a été écrite par Don E. Wilson. Le cœur de l'ouvrage traite des 13 familles et des 245 espèces de carnivores, incluant une nouvelle espèce d'Olingo découverte en Équateur en 2006.  
 Les familles étudiées dans ce volume sont les suivantes :
 Nandiniidae (civette palmiste africaine)
 Felidae (Félins)
@@ -529,9 +546,43 @@
 Ailuridae (Petit panda)
 Procyonidae (Ratons-laveurs, Coatis)
 Mephitidae (Mouffette)
-Mustelidae (Belettes, Putois, Hermines, Furets, Visons, Martres, Loutres, Blaireau, Carcajou)
-Volume 2 : Ongulés
-Les familles étudiées dans ce volume sont les suivantes :
+Mustelidae (Belettes, Putois, Hermines, Furets, Visons, Martres, Loutres, Blaireau, Carcajou)</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Handbook_of_the_Mammals_of_the_World</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Handbook_of_the_Mammals_of_the_World</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Volumes</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Volume 2 : Ongulés</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Les familles étudiées dans ce volume sont les suivantes :
 Orycteropodidae (Oryctérope du Cap)
 Procaviidae (Damans)
 Elephantidae (Éléphants)
@@ -548,9 +599,43 @@
 Cervidae (Cerfs, Chevreuils, Élans, Rennes)
 Bovidae (Bœufs, Gazelles, Bisons, Moutons)
 Antilocapridae (l'Antilope d'Amérique)
-Giraffidae (Girafes, Okapi)
-Volume 3 : Primates
-Les familles étudiées dans ce volume sont les suivantes :
+Giraffidae (Girafes, Okapi)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Handbook_of_the_Mammals_of_the_World</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Handbook_of_the_Mammals_of_the_World</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Volumes</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Volume 3 : Primates</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Les familles étudiées dans ce volume sont les suivantes :
 Tarsiidae (Tarsiers)
 Lorisidae (Loris, Pottos)
 Galagidae (Galagos)
@@ -567,9 +652,43 @@
 Atelidae (Singes hurleurs, Atèles)
 Hylobatidae (Gibbons)
 Pongidae (Orang-outans)
-Hominidae (Homme, Chimpanzés, Gorilles, Bonobos)
-Volume 4 : Mammifères marins
-Les familles étudiées dans ce volume sont les suivantes :
+Hominidae (Homme, Chimpanzés, Gorilles, Bonobos)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Handbook_of_the_Mammals_of_the_World</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Handbook_of_the_Mammals_of_the_World</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Volumes</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Volume 4 : Mammifères marins</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Les familles étudiées dans ce volume sont les suivantes :
 Otariidae (Otaries)
 Odobenidae (Morses)
 Phocidae (Phoques)
@@ -588,9 +707,43 @@
 Delphinidae (Dauphins)
 Phocoenidae (Marsouins)
 Trichechidae (Lamantins)
-Dugongidae (Dugong)
-Volume 5 : Monotrèmes et Marsupiaux
-Les familles étudiées dans ce volume sont les suivantes :
+Dugongidae (Dugong)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Handbook_of_the_Mammals_of_the_World</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Handbook_of_the_Mammals_of_the_World</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Volumes</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Volume 5 : Monotrèmes et Marsupiaux</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Les familles étudiées dans ce volume sont les suivantes :
 Tachyglossidae (Echidnées)
 Ornithorhynchidae (Ornithorynque)
 Didelphidae (Opossums)
@@ -609,11 +762,7 @@
 Petauridae (Phalanger rayées)
 Tarsipedidae (Souris à miel)
 Acrobatidae (Acrobate pygmée et Phalanger à queue plumeuse)
-Hypsiprymnodontidae (Kangourou-rat musqué)
-Volume 6 : Lagomorphes et Rongeurs I
-Volume 7 : Rongeurs II
-Volume 8 : Insectivores, paresseux et colugos
-Volume 9 : Chauves-souris</t>
+Hypsiprymnodontidae (Kangourou-rat musqué)</t>
         </is>
       </c>
     </row>
